--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1079.74</v>
+        <v>185990.78</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>215.95</v>
+        <v>12399.39</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.66</v>
+        <v>346.76</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.8</v>
+        <v>75.20999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.9400000000001</v>
+        <v>541.49</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.65000000000001</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,107 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.69</v>
+        <v>41.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>643.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7991.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>220.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>858.4299999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>138514.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21773.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14746.85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>41.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,78 +436,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185990.78</v>
-      </c>
+        <v>67.67</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12399.39</v>
+        <v>334.86</v>
+      </c>
+      <c r="C3" t="n">
+        <v>354.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.76</v>
+        <v>40.67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.20999999999999</v>
+        <v>857.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>884.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541.49</v>
+        <v>145714.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>145482.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.83</v>
+        <v>81.18000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.22</v>
+        <v>7949.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8088.84</v>
       </c>
     </row>
     <row r="9">
@@ -517,97 +541,127 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>643.33</v>
+        <v>643.8099999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>659.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.85</v>
+        <v>21649.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20820.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.2</v>
+        <v>44.61</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7991.8</v>
+        <v>549.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>536.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.29</v>
+        <v>40.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>858.4299999999999</v>
+        <v>40.73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138514.2</v>
+        <v>225.21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>223.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21773.1</v>
+        <v>14886.29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15283.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14746.85</v>
+        <v>12875.05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13756.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.22</v>
+        <v>193125.82</v>
+      </c>
+      <c r="C18" t="n">
+        <v>192586.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,220 +443,161 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.67</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>192546.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>334.86</v>
-      </c>
-      <c r="C3" t="n">
-        <v>354.18</v>
+        <v>13753.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43.27</v>
+        <v>354.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>857.7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>884.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145714.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>145482.38</v>
+        <v>43.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.18000000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>81.97</v>
+        <v>884.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7949.09</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8088.84</v>
+        <v>145482.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>643.8099999999999</v>
-      </c>
-      <c r="C9" t="n">
         <v>659.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21649.47</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20820.27</v>
+        <v>45.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.61</v>
-      </c>
-      <c r="C11" t="n">
-        <v>45.28</v>
+        <v>81.97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>549.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>536.6</v>
+        <v>8088.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.73</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41.35</v>
+        <v>20820.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.73</v>
-      </c>
-      <c r="C14" t="n">
-        <v>41.35</v>
+        <v>536.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>225.21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>223.61</v>
+        <v>41.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14886.29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15283.58</v>
+        <v>223.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12875.05</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13756.15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>193125.82</v>
-      </c>
-      <c r="C18" t="n">
-        <v>192586.13</v>
+        <v>15283.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,165 +439,219 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>192546.23</v>
+          <t>Adcap Wise Capital Growth</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>3111.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13753.3</v>
+        <v>354.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>340.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.18</v>
+        <v>1.45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.45</v>
+        <v>43.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.27</v>
+        <v>884.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>897.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4</v>
+        <v>145482.38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>147711.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145482.38</v>
-      </c>
+        <v>659.05</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>659.05</v>
-      </c>
+        <v>45.28</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.28</v>
-      </c>
+        <v>81.97</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.97</v>
-      </c>
+        <v>8088.84</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8088.84</v>
-      </c>
+        <v>20820.27</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20820.27</v>
+        <v>536.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>560.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>536.6</v>
+        <v>41.35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.35</v>
+        <v>223.61</v>
+      </c>
+      <c r="C15" t="n">
+        <v>222.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>223.61</v>
+        <v>15283.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16318.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15283.58</v>
+        <v>13753.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16925.58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>192546.23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>169255.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -455,6 +460,9 @@
       <c r="C2" t="n">
         <v>3111.28</v>
       </c>
+      <c r="D2" t="n">
+        <v>2833.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +476,9 @@
       <c r="C3" t="n">
         <v>340.06</v>
       </c>
+      <c r="D3" t="n">
+        <v>320.51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
       <c r="C4" t="n">
         <v>7.44</v>
       </c>
+      <c r="D4" t="n">
+        <v>12.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
       <c r="C5" t="n">
         <v>45.18</v>
       </c>
+      <c r="D5" t="n">
+        <v>39.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
       <c r="C6" t="n">
         <v>897.27</v>
       </c>
+      <c r="D6" t="n">
+        <v>853.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
       <c r="C7" t="n">
         <v>147711.95</v>
       </c>
+      <c r="D7" t="n">
+        <v>138125.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -531,6 +554,9 @@
         <v>659.05</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>631</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -542,6 +568,9 @@
         <v>45.28</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>44.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -553,6 +582,9 @@
         <v>81.97</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>80.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +596,9 @@
         <v>8088.84</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>7863.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -575,6 +610,9 @@
         <v>20820.27</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>30002.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -588,6 +626,9 @@
       <c r="C13" t="n">
         <v>560.14</v>
       </c>
+      <c r="D13" t="n">
+        <v>490.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -601,6 +642,9 @@
       <c r="C14" t="n">
         <v>41.82</v>
       </c>
+      <c r="D14" t="n">
+        <v>40.52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -614,6 +658,9 @@
       <c r="C15" t="n">
         <v>222.26</v>
       </c>
+      <c r="D15" t="n">
+        <v>215.84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -627,6 +674,9 @@
       <c r="C16" t="n">
         <v>16318.43</v>
       </c>
+      <c r="D16" t="n">
+        <v>15398.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -640,6 +690,9 @@
       <c r="C17" t="n">
         <v>16925.58</v>
       </c>
+      <c r="D17" t="n">
+        <v>13130.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -652,6 +705,9 @@
       </c>
       <c r="C18" t="n">
         <v>169255.83</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196953.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -463,6 +468,9 @@
       <c r="D2" t="n">
         <v>2833.96</v>
       </c>
+      <c r="E2" t="n">
+        <v>2994.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>320.51</v>
       </c>
+      <c r="E3" t="n">
+        <v>350.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>12.95</v>
       </c>
+      <c r="E4" t="n">
+        <v>20.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>39.63</v>
       </c>
+      <c r="E5" t="n">
+        <v>40.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>853.16</v>
       </c>
+      <c r="E6" t="n">
+        <v>885.4299999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -542,6 +562,9 @@
       </c>
       <c r="D7" t="n">
         <v>138125.99</v>
+      </c>
+      <c r="E7" t="n">
+        <v>142610.73</v>
       </c>
     </row>
     <row r="8">
@@ -557,6 +580,9 @@
       <c r="D8" t="n">
         <v>631</v>
       </c>
+      <c r="E8" t="n">
+        <v>563.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -571,6 +597,9 @@
       <c r="D9" t="n">
         <v>44.13</v>
       </c>
+      <c r="E9" t="n">
+        <v>45.54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +614,9 @@
       <c r="D10" t="n">
         <v>80.23</v>
       </c>
+      <c r="E10" t="n">
+        <v>82.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="D11" t="n">
         <v>7863.5</v>
       </c>
+      <c r="E11" t="n">
+        <v>7609.42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -613,6 +648,9 @@
       <c r="D12" t="n">
         <v>30002.96</v>
       </c>
+      <c r="E12" t="n">
+        <v>86122.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -629,6 +667,9 @@
       <c r="D13" t="n">
         <v>490.67</v>
       </c>
+      <c r="E13" t="n">
+        <v>525.78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -645,6 +686,9 @@
       <c r="D14" t="n">
         <v>40.52</v>
       </c>
+      <c r="E14" t="n">
+        <v>41.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -661,6 +705,9 @@
       <c r="D15" t="n">
         <v>215.84</v>
       </c>
+      <c r="E15" t="n">
+        <v>225.48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -677,6 +724,7 @@
       <c r="D16" t="n">
         <v>15398.11</v>
       </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -693,6 +741,9 @@
       <c r="D17" t="n">
         <v>13130.21</v>
       </c>
+      <c r="E17" t="n">
+        <v>17294.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -708,6 +759,9 @@
       </c>
       <c r="D18" t="n">
         <v>196953.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>242118.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,6 +476,9 @@
       <c r="E2" t="n">
         <v>2994.9</v>
       </c>
+      <c r="F2" t="n">
+        <v>24549.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -490,6 +498,9 @@
       <c r="E3" t="n">
         <v>350.68</v>
       </c>
+      <c r="F3" t="n">
+        <v>344.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>20.16</v>
       </c>
+      <c r="F4" t="n">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>40.06</v>
       </c>
+      <c r="F5" t="n">
+        <v>39.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>885.4299999999999</v>
       </c>
+      <c r="F6" t="n">
+        <v>897.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -565,6 +585,9 @@
       </c>
       <c r="E7" t="n">
         <v>142610.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>145029.62</v>
       </c>
     </row>
     <row r="8">
@@ -583,6 +606,9 @@
       <c r="E8" t="n">
         <v>563.9</v>
       </c>
+      <c r="F8" t="n">
+        <v>570.78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -600,6 +626,9 @@
       <c r="E9" t="n">
         <v>45.54</v>
       </c>
+      <c r="F9" t="n">
+        <v>46.07</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +646,9 @@
       <c r="E10" t="n">
         <v>82.23</v>
       </c>
+      <c r="F10" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -634,6 +666,9 @@
       <c r="E11" t="n">
         <v>7609.42</v>
       </c>
+      <c r="F11" t="n">
+        <v>7629.43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -651,6 +686,9 @@
       <c r="E12" t="n">
         <v>86122.2</v>
       </c>
+      <c r="F12" t="n">
+        <v>88591.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -670,6 +708,9 @@
       <c r="E13" t="n">
         <v>525.78</v>
       </c>
+      <c r="F13" t="n">
+        <v>527.5599999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +730,9 @@
       <c r="E14" t="n">
         <v>41.8</v>
       </c>
+      <c r="F14" t="n">
+        <v>41.77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -708,6 +752,9 @@
       <c r="E15" t="n">
         <v>225.48</v>
       </c>
+      <c r="F15" t="n">
+        <v>225.93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +772,7 @@
         <v>15398.11</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -744,6 +792,9 @@
       <c r="E17" t="n">
         <v>17294.17</v>
       </c>
+      <c r="F17" t="n">
+        <v>19185.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -762,6 +813,9 @@
       </c>
       <c r="E18" t="n">
         <v>242118.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>268597.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -479,6 +484,7 @@
       <c r="F2" t="n">
         <v>24549.21</v>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,6 +507,9 @@
       <c r="F3" t="n">
         <v>344.57</v>
       </c>
+      <c r="G3" t="n">
+        <v>338.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +532,9 @@
       <c r="F4" t="n">
         <v>19.84</v>
       </c>
+      <c r="G4" t="n">
+        <v>20.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -545,6 +557,9 @@
       <c r="F5" t="n">
         <v>39.04</v>
       </c>
+      <c r="G5" t="n">
+        <v>42.51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +582,9 @@
       <c r="F6" t="n">
         <v>897.83</v>
       </c>
+      <c r="G6" t="n">
+        <v>874.46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -588,6 +606,9 @@
       </c>
       <c r="F7" t="n">
         <v>145029.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>145389.25</v>
       </c>
     </row>
     <row r="8">
@@ -609,6 +630,9 @@
       <c r="F8" t="n">
         <v>570.78</v>
       </c>
+      <c r="G8" t="n">
+        <v>568.0700000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -629,6 +653,9 @@
       <c r="F9" t="n">
         <v>46.07</v>
       </c>
+      <c r="G9" t="n">
+        <v>45.98</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +676,9 @@
       <c r="F10" t="n">
         <v>83.7</v>
       </c>
+      <c r="G10" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -669,6 +699,9 @@
       <c r="F11" t="n">
         <v>7629.43</v>
       </c>
+      <c r="G11" t="n">
+        <v>7636.89</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -689,6 +722,9 @@
       <c r="F12" t="n">
         <v>88591.67</v>
       </c>
+      <c r="G12" t="n">
+        <v>91906.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -711,6 +747,9 @@
       <c r="F13" t="n">
         <v>527.5599999999999</v>
       </c>
+      <c r="G13" t="n">
+        <v>527.74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +772,9 @@
       <c r="F14" t="n">
         <v>41.77</v>
       </c>
+      <c r="G14" t="n">
+        <v>41.99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -755,6 +797,9 @@
       <c r="F15" t="n">
         <v>225.93</v>
       </c>
+      <c r="G15" t="n">
+        <v>226.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -773,6 +818,7 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -795,6 +841,9 @@
       <c r="F17" t="n">
         <v>19185.5</v>
       </c>
+      <c r="G17" t="n">
+        <v>19053.96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -816,6 +865,9 @@
       </c>
       <c r="F18" t="n">
         <v>268597.02</v>
+      </c>
+      <c r="G18" t="n">
+        <v>247701.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -485,6 +490,7 @@
         <v>24549.21</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,6 +516,9 @@
       <c r="G3" t="n">
         <v>338.58</v>
       </c>
+      <c r="H3" t="n">
+        <v>352.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -535,6 +544,9 @@
       <c r="G4" t="n">
         <v>20.21</v>
       </c>
+      <c r="H4" t="n">
+        <v>19.88</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -560,6 +572,9 @@
       <c r="G5" t="n">
         <v>42.51</v>
       </c>
+      <c r="H5" t="n">
+        <v>45.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +600,9 @@
       <c r="G6" t="n">
         <v>874.46</v>
       </c>
+      <c r="H6" t="n">
+        <v>862.41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +627,9 @@
       </c>
       <c r="G7" t="n">
         <v>145389.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>144978.91</v>
       </c>
     </row>
     <row r="8">
@@ -633,6 +654,9 @@
       <c r="G8" t="n">
         <v>568.0700000000001</v>
       </c>
+      <c r="H8" t="n">
+        <v>558.73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -656,6 +680,9 @@
       <c r="G9" t="n">
         <v>45.98</v>
       </c>
+      <c r="H9" t="n">
+        <v>45.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -679,6 +706,9 @@
       <c r="G10" t="n">
         <v>83.40000000000001</v>
       </c>
+      <c r="H10" t="n">
+        <v>82.79000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -702,6 +732,9 @@
       <c r="G11" t="n">
         <v>7636.89</v>
       </c>
+      <c r="H11" t="n">
+        <v>7607.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -725,6 +758,9 @@
       <c r="G12" t="n">
         <v>91906.05</v>
       </c>
+      <c r="H12" t="n">
+        <v>92399.82000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -750,6 +786,9 @@
       <c r="G13" t="n">
         <v>527.74</v>
       </c>
+      <c r="H13" t="n">
+        <v>515.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -775,6 +814,9 @@
       <c r="G14" t="n">
         <v>41.99</v>
       </c>
+      <c r="H14" t="n">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -799,6 +841,9 @@
       </c>
       <c r="G15" t="n">
         <v>226.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>220.54</v>
       </c>
     </row>
     <row r="16">
@@ -819,6 +864,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -844,6 +890,9 @@
       <c r="G17" t="n">
         <v>19053.96</v>
       </c>
+      <c r="H17" t="n">
+        <v>19056.16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -868,6 +917,9 @@
       </c>
       <c r="G18" t="n">
         <v>247701.43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>247730.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -491,6 +496,7 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -519,6 +525,9 @@
       <c r="H3" t="n">
         <v>352.45</v>
       </c>
+      <c r="I3" t="n">
+        <v>349.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +556,9 @@
       <c r="H4" t="n">
         <v>19.88</v>
       </c>
+      <c r="I4" t="n">
+        <v>19.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -575,6 +587,9 @@
       <c r="H5" t="n">
         <v>45.15</v>
       </c>
+      <c r="I5" t="n">
+        <v>42.07</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +618,9 @@
       <c r="H6" t="n">
         <v>862.41</v>
       </c>
+      <c r="I6" t="n">
+        <v>849.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -630,6 +648,9 @@
       </c>
       <c r="H7" t="n">
         <v>144978.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>143685.77</v>
       </c>
     </row>
     <row r="8">
@@ -657,6 +678,9 @@
       <c r="H8" t="n">
         <v>558.73</v>
       </c>
+      <c r="I8" t="n">
+        <v>559.1799999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -683,6 +707,9 @@
       <c r="H9" t="n">
         <v>45.32</v>
       </c>
+      <c r="I9" t="n">
+        <v>45.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -709,6 +736,9 @@
       <c r="H10" t="n">
         <v>82.79000000000001</v>
       </c>
+      <c r="I10" t="n">
+        <v>81.95999999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -735,6 +765,9 @@
       <c r="H11" t="n">
         <v>7607.44</v>
       </c>
+      <c r="I11" t="n">
+        <v>7534.67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -761,6 +794,9 @@
       <c r="H12" t="n">
         <v>92399.82000000001</v>
       </c>
+      <c r="I12" t="n">
+        <v>91557.09</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -789,6 +825,9 @@
       <c r="H13" t="n">
         <v>515.08</v>
       </c>
+      <c r="I13" t="n">
+        <v>506.57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -817,6 +856,9 @@
       <c r="H14" t="n">
         <v>41.5</v>
       </c>
+      <c r="I14" t="n">
+        <v>40.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -844,6 +886,9 @@
       </c>
       <c r="H15" t="n">
         <v>220.54</v>
+      </c>
+      <c r="I15" t="n">
+        <v>223.02</v>
       </c>
     </row>
     <row r="16">
@@ -865,6 +910,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -893,6 +939,9 @@
       <c r="H17" t="n">
         <v>19056.16</v>
       </c>
+      <c r="I17" t="n">
+        <v>18884.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -920,6 +969,9 @@
       </c>
       <c r="H18" t="n">
         <v>247730.02</v>
+      </c>
+      <c r="I18" t="n">
+        <v>245495.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -528,6 +534,9 @@
       <c r="I3" t="n">
         <v>349.6</v>
       </c>
+      <c r="J3" t="n">
+        <v>348.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -559,6 +568,9 @@
       <c r="I4" t="n">
         <v>19.81</v>
       </c>
+      <c r="J4" t="n">
+        <v>19.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -590,6 +602,9 @@
       <c r="I5" t="n">
         <v>42.07</v>
       </c>
+      <c r="J5" t="n">
+        <v>42.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -621,6 +636,9 @@
       <c r="I6" t="n">
         <v>849.64</v>
       </c>
+      <c r="J6" t="n">
+        <v>863.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -651,6 +669,9 @@
       </c>
       <c r="I7" t="n">
         <v>143685.77</v>
+      </c>
+      <c r="J7" t="n">
+        <v>144834.02</v>
       </c>
     </row>
     <row r="8">
@@ -681,6 +702,9 @@
       <c r="I8" t="n">
         <v>559.1799999999999</v>
       </c>
+      <c r="J8" t="n">
+        <v>566.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -710,6 +734,9 @@
       <c r="I9" t="n">
         <v>45.15</v>
       </c>
+      <c r="J9" t="n">
+        <v>45.07</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -739,6 +766,9 @@
       <c r="I10" t="n">
         <v>81.95999999999999</v>
       </c>
+      <c r="J10" t="n">
+        <v>82.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -768,6 +798,9 @@
       <c r="I11" t="n">
         <v>7534.67</v>
       </c>
+      <c r="J11" t="n">
+        <v>7559.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -797,6 +830,9 @@
       <c r="I12" t="n">
         <v>91557.09</v>
       </c>
+      <c r="J12" t="n">
+        <v>92523.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -828,6 +864,9 @@
       <c r="I13" t="n">
         <v>506.57</v>
       </c>
+      <c r="J13" t="n">
+        <v>513.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -859,6 +898,7 @@
       <c r="I14" t="n">
         <v>40.62</v>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -889,6 +929,9 @@
       </c>
       <c r="I15" t="n">
         <v>223.02</v>
+      </c>
+      <c r="J15" t="n">
+        <v>225.12</v>
       </c>
     </row>
     <row r="16">
@@ -911,6 +954,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -942,6 +986,9 @@
       <c r="I17" t="n">
         <v>18884.24</v>
       </c>
+      <c r="J17" t="n">
+        <v>20635.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -972,6 +1019,9 @@
       </c>
       <c r="I18" t="n">
         <v>245495.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>247623.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,6 +508,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -537,6 +543,9 @@
       <c r="J3" t="n">
         <v>348.83</v>
       </c>
+      <c r="K3" t="n">
+        <v>338.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -571,6 +580,7 @@
       <c r="J4" t="n">
         <v>19.33</v>
       </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -605,6 +615,9 @@
       <c r="J5" t="n">
         <v>42.24</v>
       </c>
+      <c r="K5" t="n">
+        <v>39.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -639,6 +652,9 @@
       <c r="J6" t="n">
         <v>863.8</v>
       </c>
+      <c r="K6" t="n">
+        <v>852.9299999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -672,6 +688,9 @@
       </c>
       <c r="J7" t="n">
         <v>144834.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>145315.04</v>
       </c>
     </row>
     <row r="8">
@@ -705,6 +724,9 @@
       <c r="J8" t="n">
         <v>566.8</v>
       </c>
+      <c r="K8" t="n">
+        <v>562.41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -737,6 +759,9 @@
       <c r="J9" t="n">
         <v>45.07</v>
       </c>
+      <c r="K9" t="n">
+        <v>45.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -769,6 +794,9 @@
       <c r="J10" t="n">
         <v>82.31</v>
       </c>
+      <c r="K10" t="n">
+        <v>82.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -801,6 +829,9 @@
       <c r="J11" t="n">
         <v>7559.18</v>
       </c>
+      <c r="K11" t="n">
+        <v>7529.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -833,6 +864,9 @@
       <c r="J12" t="n">
         <v>92523.59</v>
       </c>
+      <c r="K12" t="n">
+        <v>94449.17999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -867,6 +901,9 @@
       <c r="J13" t="n">
         <v>513.7</v>
       </c>
+      <c r="K13" t="n">
+        <v>519.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -899,6 +936,7 @@
         <v>40.62</v>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -932,6 +970,9 @@
       </c>
       <c r="J15" t="n">
         <v>225.12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>219.77</v>
       </c>
     </row>
     <row r="16">
@@ -955,6 +996,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -989,6 +1031,9 @@
       <c r="J17" t="n">
         <v>20635.33</v>
       </c>
+      <c r="K17" t="n">
+        <v>22723.13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1022,6 +1067,9 @@
       </c>
       <c r="J18" t="n">
         <v>247623.99</v>
+      </c>
+      <c r="K18" t="n">
+        <v>249954.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -509,6 +514,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +552,9 @@
       <c r="K3" t="n">
         <v>338.94</v>
       </c>
+      <c r="L3" t="n">
+        <v>261.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +590,7 @@
         <v>19.33</v>
       </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -618,6 +628,9 @@
       <c r="K5" t="n">
         <v>39.04</v>
       </c>
+      <c r="L5" t="n">
+        <v>71.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -655,6 +668,9 @@
       <c r="K6" t="n">
         <v>852.9299999999999</v>
       </c>
+      <c r="L6" t="n">
+        <v>866.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -691,6 +707,9 @@
       </c>
       <c r="K7" t="n">
         <v>145315.04</v>
+      </c>
+      <c r="L7" t="n">
+        <v>146741.99</v>
       </c>
     </row>
     <row r="8">
@@ -727,6 +746,9 @@
       <c r="K8" t="n">
         <v>562.41</v>
       </c>
+      <c r="L8" t="n">
+        <v>568.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -762,6 +784,9 @@
       <c r="K9" t="n">
         <v>45.29</v>
       </c>
+      <c r="L9" t="n">
+        <v>46.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -797,6 +822,9 @@
       <c r="K10" t="n">
         <v>82.58</v>
       </c>
+      <c r="L10" t="n">
+        <v>84.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -832,6 +860,9 @@
       <c r="K11" t="n">
         <v>7529.91</v>
       </c>
+      <c r="L11" t="n">
+        <v>7652.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -867,6 +898,9 @@
       <c r="K12" t="n">
         <v>94449.17999999999</v>
       </c>
+      <c r="L12" t="n">
+        <v>93644.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -904,6 +938,9 @@
       <c r="K13" t="n">
         <v>519.39</v>
       </c>
+      <c r="L13" t="n">
+        <v>533.79</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -937,6 +974,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -973,6 +1011,9 @@
       </c>
       <c r="K15" t="n">
         <v>219.77</v>
+      </c>
+      <c r="L15" t="n">
+        <v>224.19</v>
       </c>
     </row>
     <row r="16">
@@ -997,6 +1038,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1034,6 +1076,9 @@
       <c r="K17" t="n">
         <v>22723.13</v>
       </c>
+      <c r="L17" t="n">
+        <v>22790.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1070,6 +1115,9 @@
       </c>
       <c r="K18" t="n">
         <v>249954.48</v>
+      </c>
+      <c r="L18" t="n">
+        <v>250693.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GD29.xlsx
+++ b/backend/src/excel_handler/files/GD29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -515,6 +520,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -555,6 +561,9 @@
       <c r="L3" t="n">
         <v>261.26</v>
       </c>
+      <c r="M3" t="n">
+        <v>255.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,6 +600,7 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,6 +641,9 @@
       <c r="L5" t="n">
         <v>71.08</v>
       </c>
+      <c r="M5" t="n">
+        <v>73.48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -671,6 +684,9 @@
       <c r="L6" t="n">
         <v>866.14</v>
       </c>
+      <c r="M6" t="n">
+        <v>852.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -710,6 +726,9 @@
       </c>
       <c r="L7" t="n">
         <v>146741.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>146099.39</v>
       </c>
     </row>
     <row r="8">
@@ -749,6 +768,9 @@
       <c r="L8" t="n">
         <v>568.61</v>
       </c>
+      <c r="M8" t="n">
+        <v>555.91</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -787,6 +809,9 @@
       <c r="L9" t="n">
         <v>46.35</v>
       </c>
+      <c r="M9" t="n">
+        <v>45.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -825,6 +850,9 @@
       <c r="L10" t="n">
         <v>84.11</v>
       </c>
+      <c r="M10" t="n">
+        <v>82.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -863,6 +891,9 @@
       <c r="L11" t="n">
         <v>7652.05</v>
       </c>
+      <c r="M11" t="n">
+        <v>7537.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -901,6 +932,9 @@
       <c r="L12" t="n">
         <v>93644.3</v>
       </c>
+      <c r="M12" t="n">
+        <v>93270.58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -940,6 +974,9 @@
       </c>
       <c r="L13" t="n">
         <v>533.79</v>
+      </c>
+      <c r="M13" t="n">
+        <v>533.27</v>
       </c>
     </row>
     <row r="14">
@@ -975,6 +1012,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1014,6 +1052,9 @@
       </c>
       <c r="L15" t="n">
         <v>224.19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>221.94</v>
       </c>
     </row>
     <row r="16">
@@ -1039,6 +1080,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1079,6 +1121,9 @@
       <c r="L17" t="n">
         <v>22790.35</v>
       </c>
+      <c r="M17" t="n">
+        <v>22684.32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1118,6 +1163,9 @@
       </c>
       <c r="L18" t="n">
         <v>250693.87</v>
+      </c>
+      <c r="M18" t="n">
+        <v>249527.49</v>
       </c>
     </row>
   </sheetData>
